--- a/11_Process_Thread/01 进程结构介绍(EPROCESS).xlsx
+++ b/11_Process_Thread/01 进程结构介绍(EPROCESS).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\11_Process_Thread\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027F0820-0A99-4602-BE85-F2F0BC447634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5723BD0-3B7B-465A-A9F6-4D58CB282605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -136,15 +136,15 @@
     <t>19) +0x1b0 Peb : Ptr32 _PEB//PEB((Process Environment Block 进程环境块)：进程在3环的一个结构体，里面包含了进程的模块列表、是否处于调试状态等信息。</t>
   </si>
   <si>
-    <t>20）+0x24c ExitStatus 默认值为259，否则进程退出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>注意不同版本的系统 成员位置有差异</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3、练习：通过 EPROCESS.ActiveProcessLinks(LIST_ENTRY类型) 遍历进程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20）+0x24c ExitStatus 默认值为259(0x103)，否则进程退出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1174,8 +1174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1241,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E91C3B5-BE4E-4AA7-8027-42B35B2B4F38}">
   <dimension ref="B2:B50"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1257,7 +1257,7 @@
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
@@ -1392,7 +1392,7 @@
     </row>
     <row r="50" spans="2:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
